--- a/excels/abilities/abilities_arms.xlsx
+++ b/excels/abilities/abilities_arms.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>名字</t>
   </si>
@@ -176,7 +176,53 @@
     <t>abilities/arms/arms_1</t>
   </si>
   <si>
+    <t>base_mul 1</t>
+  </si>
+  <si>
+    <t>bonus_mul 1</t>
+  </si>
+  <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
+  </si>
+  <si>
+    <t>arms_2</t>
+  </si>
+  <si>
+    <t>离子转动</t>
+  </si>
+  <si>
+    <t>自身300码产生一个雷离子转动的电圈，对触碰到的敌人产生伤害
+范围:%radius%</t>
+  </si>
+  <si>
+    <t>razor_plasma_field</t>
+  </si>
+  <si>
+    <t>abilities/arms/arms_2</t>
+  </si>
+  <si>
+    <t>radius 150</t>
+  </si>
+  <si>
+    <t>duration 3</t>
+  </si>
+  <si>
+    <t>arms_3</t>
+  </si>
+  <si>
+    <t>弧形闪电</t>
+  </si>
+  <si>
+    <t>对范围内敌人进行一次雷电打击</t>
+  </si>
+  <si>
+    <t>zuus_arc_lightning</t>
+  </si>
+  <si>
+    <t>abilities/arms/arms_3</t>
+  </si>
+  <si>
+    <t>count 1</t>
   </si>
 </sst>
 </file>
@@ -1450,8 +1496,8 @@
   <sheetPr/>
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1646,8 +1692,12 @@
         <v>48</v>
       </c>
       <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
@@ -1667,7 +1717,7 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
@@ -1677,26 +1727,56 @@
       <c r="Z3" s="23"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="A4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
+      <c r="M4" s="12">
+        <v>1</v>
+      </c>
+      <c r="N4" s="12">
+        <v>3</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0</v>
+      </c>
+      <c r="P4" s="12">
+        <v>800</v>
+      </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
-      <c r="T4" s="13"/>
+      <c r="T4" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
@@ -1705,26 +1785,54 @@
       <c r="Z4" s="23"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="A5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="H5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
+      <c r="M5" s="12">
+        <v>1</v>
+      </c>
+      <c r="N5" s="12">
+        <v>3</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12">
+        <v>800</v>
+      </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
-      <c r="T5" s="13"/>
+      <c r="T5" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>

--- a/excels/abilities/abilities_arms.xlsx
+++ b/excels/abilities/abilities_arms.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>名字</t>
   </si>
@@ -98,6 +98,9 @@
     <t>ScriptFile</t>
   </si>
   <si>
+    <t>FightRecapLevel</t>
+  </si>
+  <si>
     <t>AbilityValues[{]</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
     <t>4</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>[}]</t>
   </si>
   <si>
@@ -176,10 +182,10 @@
     <t>abilities/arms/arms_1</t>
   </si>
   <si>
-    <t>base_mul 1</t>
-  </si>
-  <si>
-    <t>bonus_mul 1</t>
+    <t>base_damage_percent 100</t>
+  </si>
+  <si>
+    <t>damage_mul 100</t>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
@@ -191,7 +197,8 @@
     <t>离子转动</t>
   </si>
   <si>
-    <t>自身300码产生一个雷离子转动的电圈，对触碰到的敌人产生伤害
+    <t>电圈范围:%radius%
+自身产生一个雷离子转动的电圈,持续%duration%秒，毎%interval%对触碰到线圈的敌人产生电元素伤害
 范围:%radius%</t>
   </si>
   <si>
@@ -207,13 +214,16 @@
     <t>duration 3</t>
   </si>
   <si>
+    <t>interval 0.5</t>
+  </si>
+  <si>
     <t>arms_3</t>
   </si>
   <si>
     <t>弧形闪电</t>
   </si>
   <si>
-    <t>对范围内敌人进行一次雷电打击</t>
+    <t>对范围内随机%count%个敌人进行一次雷电打击</t>
   </si>
   <si>
     <t>zuus_arc_lightning</t>
@@ -627,7 +637,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -713,6 +723,15 @@
       <right style="thin">
         <color rgb="FF5A5A5A"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF5A5A5A"/>
@@ -951,7 +970,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -963,34 +982,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,7 +1095,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1103,46 +1122,52 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1494,10 +1519,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1507,30 +1532,30 @@
     <col min="3" max="3" width="50.625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="21.3416666666667" customWidth="1"/>
-    <col min="6" max="6" width="37.5083333333333" customWidth="1"/>
-    <col min="7" max="7" width="17.175" customWidth="1"/>
-    <col min="8" max="8" width="25.5083333333333" customWidth="1"/>
-    <col min="9" max="9" width="15.675" customWidth="1"/>
-    <col min="10" max="10" width="13.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="13.175" customWidth="1"/>
-    <col min="12" max="12" width="3.625" customWidth="1"/>
-    <col min="13" max="13" width="13.3416666666667" customWidth="1"/>
-    <col min="14" max="14" width="21.675" customWidth="1"/>
-    <col min="15" max="15" width="21.5083333333333" customWidth="1"/>
-    <col min="16" max="16" width="21.8416666666667" customWidth="1"/>
-    <col min="17" max="17" width="24.0083333333333" customWidth="1"/>
-    <col min="18" max="18" width="17.675" customWidth="1"/>
-    <col min="19" max="19" width="30.5" customWidth="1"/>
-    <col min="20" max="20" width="50.625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="32.5083333333333" customWidth="1"/>
-    <col min="22" max="22" width="27.175" customWidth="1"/>
-    <col min="23" max="23" width="40.5083333333333" customWidth="1"/>
-    <col min="24" max="24" width="23.675" customWidth="1"/>
-    <col min="25" max="25" width="32.3416666666667" customWidth="1"/>
-    <col min="26" max="26" width="15.5083333333333" customWidth="1"/>
+    <col min="6" max="7" width="37.5083333333333" customWidth="1"/>
+    <col min="8" max="8" width="17.175" customWidth="1"/>
+    <col min="9" max="9" width="25.5083333333333" customWidth="1"/>
+    <col min="10" max="10" width="15.675" customWidth="1"/>
+    <col min="11" max="11" width="13.3416666666667" customWidth="1"/>
+    <col min="12" max="13" width="13.175" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
+    <col min="15" max="15" width="13.3416666666667" customWidth="1"/>
+    <col min="16" max="16" width="21.675" customWidth="1"/>
+    <col min="17" max="17" width="21.5083333333333" customWidth="1"/>
+    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
+    <col min="19" max="19" width="24.0083333333333" customWidth="1"/>
+    <col min="20" max="20" width="17.675" customWidth="1"/>
+    <col min="21" max="21" width="30.5" customWidth="1"/>
+    <col min="22" max="22" width="50.625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="32.5083333333333" customWidth="1"/>
+    <col min="24" max="24" width="27.175" customWidth="1"/>
+    <col min="25" max="25" width="40.5083333333333" customWidth="1"/>
+    <col min="26" max="26" width="23.675" customWidth="1"/>
+    <col min="27" max="27" width="32.3416666666667" customWidth="1"/>
+    <col min="28" max="28" width="15.5083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:26">
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:28">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1549,50 +1574,52 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="W1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="X1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="Y1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="Z1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="21"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="23"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:26">
+    <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:28">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -1614,16 +1641,16 @@
       <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="18" t="s">
         <v>27</v>
       </c>
       <c r="L2" s="18" t="s">
@@ -1635,378 +1662,410 @@
       <c r="N2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="22" t="s">
         <v>41</v>
       </c>
       <c r="Z2" s="22" t="s">
         <v>42</v>
       </c>
+      <c r="AA2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="13" t="s">
+    <row r="3" s="2" customFormat="1" ht="39" customHeight="1" spans="1:28">
+      <c r="A3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12">
+      <c r="G3" s="11">
         <v>1</v>
       </c>
-      <c r="N3" s="12">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11">
+        <v>1</v>
+      </c>
+      <c r="P3" s="11">
         <v>3</v>
       </c>
-      <c r="O3" s="12">
+      <c r="Q3" s="11">
         <v>0</v>
       </c>
-      <c r="P3" s="12">
-        <v>800</v>
-      </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="13" t="s">
+      <c r="R3" s="11">
+        <v>0</v>
+      </c>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="25"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="39" customHeight="1" spans="1:28">
+      <c r="A4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="23"/>
+      <c r="J4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11">
+        <v>1</v>
+      </c>
+      <c r="P4" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0</v>
+      </c>
+      <c r="R4" s="11">
+        <v>0</v>
+      </c>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="25"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A4" s="11" t="s">
+    <row r="5" s="2" customFormat="1" ht="39" customHeight="1" spans="1:28">
+      <c r="A5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="K5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11">
+        <v>1</v>
+      </c>
+      <c r="P5" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0</v>
+      </c>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12">
-        <v>1</v>
-      </c>
-      <c r="N4" s="12">
-        <v>3</v>
-      </c>
-      <c r="O4" s="12">
-        <v>0</v>
-      </c>
-      <c r="P4" s="12">
-        <v>800</v>
-      </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="23"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="25"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12">
-        <v>1</v>
-      </c>
-      <c r="N5" s="12">
-        <v>3</v>
-      </c>
-      <c r="O5" s="12">
-        <v>0</v>
-      </c>
-      <c r="P5" s="12">
-        <v>800</v>
-      </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="23"/>
+    <row r="6" s="2" customFormat="1" ht="39" customHeight="1" spans="1:28">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="25"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="23"/>
+    <row r="7" s="2" customFormat="1" ht="39" customHeight="1" spans="1:28">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="25"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="23"/>
+    <row r="8" s="2" customFormat="1" ht="39" customHeight="1" spans="1:28">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="25"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="23"/>
+    <row r="9" s="2" customFormat="1" ht="39" customHeight="1" spans="1:28">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="25"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="23"/>
+    <row r="10" s="2" customFormat="1" ht="39" customHeight="1" spans="1:28">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="25"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="23"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="12"/>
+    <row r="11" s="2" customFormat="1" ht="39" customHeight="1" spans="1:28">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="23"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
